--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Web_KTPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E353CA23-0820-46CF-9014-845A67727ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFE0335-7288-4F48-8A33-9D3D51F6A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40832E2C-F3B8-444B-9C9D-48451F9EB369}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
   <si>
     <t>Summary</t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>4.2 - 9</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -544,7 +547,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C49F517-203B-40D8-9923-3844E40156A5}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -569,6 +572,11 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">

--- a/Test_Case.xlsx
+++ b/Test_Case.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Web_KTPM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFE0335-7288-4F48-8A33-9D3D51F6A50A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A248EC01-421D-48F7-85FE-411F5F708198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{40832E2C-F3B8-444B-9C9D-48451F9EB369}"/>
   </bookViews>
   <sheets>
     <sheet name="Chức năng" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="Giao diện" sheetId="6" r:id="rId2"/>
     <sheet name="Phúc" sheetId="2" state="hidden" r:id="rId3"/>
     <sheet name="Thái" sheetId="3" state="hidden" r:id="rId4"/>
   </sheets>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Summary</t>
   </si>
@@ -121,6 +121,54 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>4.1 - 1</t>
+  </si>
+  <si>
+    <t>4.1 - 2</t>
+  </si>
+  <si>
+    <t>4.1 - 3</t>
+  </si>
+  <si>
+    <t>4.1 - 4</t>
+  </si>
+  <si>
+    <t>4.1 - 5</t>
+  </si>
+  <si>
+    <t>4.1 - 6</t>
+  </si>
+  <si>
+    <t>thêm danh sách vào giỏ hàng khi (chưa/đã đăng nhập)</t>
+  </si>
+  <si>
+    <t>trường hợp 1: đã đăng nhập
+Trường hợp 2: chưa đăng nhập</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> trường hợp đã đăng nhập: thực hiện thao tác đăng nhập, sau đó thực hiện việc thêm item vào giỏ hàng
+ trường hợp chưa đăng nhập: thực hiện hành động thêm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Khi đã đang nhập thì thêm được vào giỏ hàng
+khi chưa đăng nhập thì không được thêm sản phẩm vào giỏ hàng</t>
+  </si>
+  <si>
+    <t>Thêm và xóa sản phẩm trong giỏ hàng</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập và giỏ hàng không được trống</t>
+  </si>
+  <si>
+    <t>nhấn vào nút xóa và thêm với từng sản phẩm tương ứng trong giỏ hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">số lượng sản phẩm tăng khi được thêm và giảm khi nhấn giảm. </t>
+  </si>
+  <si>
+    <t>sản phẩm sẽ tự động biến mất khỏi giỏ hàng khi số lượng được giảm về 0</t>
   </si>
 </sst>
 </file>
@@ -547,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C49F517-203B-40D8-9923-3844E40156A5}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -762,12 +810,180 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D1A7BF-B75D-4C1B-8448-70FF828F31E9}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:G8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="29.21875" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="29.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="6"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
